--- a/biology/Neurosciences/Antimuscarinique/Antimuscarinique.xlsx
+++ b/biology/Neurosciences/Antimuscarinique/Antimuscarinique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un agent antimuscarinique est un agent anticholinergique qui bloque l'activité du récepteur muscarinique de l'acétylcholine.
 L'acétylcholine (abrégé ACh) est un neurotransmetteur dont le récepteur est une protéine présente dans les synapses et d'autres membranes cellulaires. En plus de répondre à leur neurotransmetteur primaire, les récepteurs peuvent être sensibles à d'autres molécules. Il existe deux types de récepteur pour l'acétylcholine :
@@ -516,9 +528,11 @@
           <t>Effets</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La scopolamine et l'atropine ont des effets similaires sur le système nerveux périphérique. Cependant, l'atropine a des effets plus importants sur le système nerveux central (SNC) que la scopolamine en raison de sa capacité à traverser la barrière hémato-encéphalique[1] .
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La scopolamine et l'atropine ont des effets similaires sur le système nerveux périphérique. Cependant, l'atropine a des effets plus importants sur le système nerveux central (SNC) que la scopolamine en raison de sa capacité à traverser la barrière hémato-encéphalique .
 À des doses plus élevées que thérapeutiques, l'atropine et la scopolamine provoquent une dépression du système nerveux central caractérisée par une amnésie, de la fatigue et une réduction du sommeil à mouvements oculaires rapides.
 La scopolamine a une activité antiémétique et utilisée pour traiter le mal des transports.
 Les antimuscariniques sont également utilisés comme médicaments antiparkinsoniens. Dans la maladie de Parkinson, il existe un déséquilibre entre les niveaux d'acétylcholine et de dopamine dans le cerveau, impliquant à la fois une augmentation des niveaux d'acétylcholine et une dégénérescence des voies dopaminergiques. Ainsi, dans la maladie de Parkinson, le niveau d'activité dopaminergique est diminué. Une méthode d'équilibrage des neurotransmetteurs consiste à bloquer l'activité cholinergique centrale à l'aide d'antagonistes des récepteurs muscariniques.
@@ -526,7 +540,7 @@
 Si l'atropine est administrée par injection intramusculaire ou sous-cutanée, elle provoque une bradycardie initiale en agissant sur les récepteurs présynaptiques  muscariniques de type M1 (autorécepteurs). La recapture d'acétylcholine dans l'axoplasme est empêchée et le nerf présynaptique libère plus d'acétylcholine dans la synapse qui provoque une bradycardie initiale.
 Dans le nœud atrioventriculaire, le potentiel de repos est raccourci, ce qui facilite la conduction. Cela se manifeste par un intervalle PR raccourci sur l'électrocardiogramme.
 L'atropine à dose thérapeutique ne provoque pas de baisse de la pression artérielle. Pour des fortes doses, elle provoque une baisse de la tension artérielle. En effet la tachycardie et la stimulation des centres vasomoteurs entraînent une augmentation de la pression artérielle. Mais, en raison de la régulation par rétroaction des centres vasomoteurs, il y a une baisse de la pression artérielle par vasodilatation.
-Les principaux anti muscariniques[2] sont :
+Les principaux anti muscariniques sont :
 l'atropine ;
 l'hyoscyamine ;
 le butylbromure ;
@@ -540,41 +554,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Antimuscarinique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Antimuscarinique</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Tableau de comparaison</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Aperçu des différents antimuscariques
-Tableaux comparatifs de l'affinité de différentes molécules avec chaque classe de récepteur muscarinique
-Anticholinergiques
-Antihistaminiques
-Antidépresseurs
-Antipsychotiques</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
